--- a/all.data/ref.xlsx
+++ b/all.data/ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/all.data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2BBFF-11B3-E443-99BD-127A0FA2D046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EE356C-4F7D-F649-8190-FAD0FA36D187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39680" yWindow="2860" windowWidth="26660" windowHeight="17620" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6933" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6937" uniqueCount="1165">
   <si>
     <t>old file name</t>
   </si>
@@ -5480,7 +5480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5768,7 +5768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5778,9 +5778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
   <dimension ref="A1:Y215"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L164" sqref="L164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13108,9 +13108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AC297A-A885-7C40-9A4E-22B5A2A054BE}">
   <dimension ref="A1:M523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="E1" zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I246" sqref="I246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13192,7 +13192,7 @@
       <c r="I2" t="s">
         <v>705</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" t="s">
         <v>913</v>
       </c>
       <c r="M2" t="s">
@@ -13224,7 +13224,7 @@
       <c r="I3" t="s">
         <v>705</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" t="s">
         <v>913</v>
       </c>
       <c r="M3" t="s">
@@ -13256,7 +13256,7 @@
       <c r="I4" t="s">
         <v>705</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" t="s">
         <v>913</v>
       </c>
       <c r="M4" t="s">
@@ -13288,7 +13288,7 @@
       <c r="I5" t="s">
         <v>705</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" t="s">
         <v>913</v>
       </c>
       <c r="M5" t="s">
@@ -13320,7 +13320,7 @@
       <c r="I6" t="s">
         <v>705</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" t="s">
         <v>913</v>
       </c>
       <c r="M6" t="s">
@@ -13352,7 +13352,7 @@
       <c r="I7" t="s">
         <v>705</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" t="s">
         <v>913</v>
       </c>
       <c r="M7" t="s">
@@ -13384,7 +13384,7 @@
       <c r="I8" t="s">
         <v>705</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" t="s">
         <v>913</v>
       </c>
       <c r="M8" t="s">
@@ -13416,7 +13416,7 @@
       <c r="I9" t="s">
         <v>705</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" t="s">
         <v>913</v>
       </c>
       <c r="M9" t="s">
@@ -13448,7 +13448,7 @@
       <c r="I10" t="s">
         <v>705</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" t="s">
         <v>913</v>
       </c>
       <c r="M10" t="s">
@@ -13480,7 +13480,7 @@
       <c r="I11" t="s">
         <v>705</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" t="s">
         <v>913</v>
       </c>
       <c r="M11" t="s">
@@ -13512,7 +13512,7 @@
       <c r="I12" t="s">
         <v>705</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" t="s">
         <v>913</v>
       </c>
       <c r="M12" t="s">
@@ -13544,7 +13544,7 @@
       <c r="I13" t="s">
         <v>705</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" t="s">
         <v>913</v>
       </c>
       <c r="M13" t="s">
@@ -13576,7 +13576,7 @@
       <c r="I14" t="s">
         <v>705</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" t="s">
         <v>913</v>
       </c>
       <c r="M14" t="s">
@@ -13608,7 +13608,7 @@
       <c r="I15" t="s">
         <v>705</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" t="s">
         <v>913</v>
       </c>
       <c r="M15" t="s">
@@ -13640,7 +13640,7 @@
       <c r="I16" t="s">
         <v>705</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" t="s">
         <v>913</v>
       </c>
       <c r="M16" t="s">
@@ -13672,7 +13672,7 @@
       <c r="I17" t="s">
         <v>705</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" t="s">
         <v>913</v>
       </c>
       <c r="M17" t="s">
@@ -13704,7 +13704,7 @@
       <c r="I18" t="s">
         <v>705</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" t="s">
         <v>913</v>
       </c>
       <c r="M18" t="s">
@@ -13736,7 +13736,7 @@
       <c r="I19" t="s">
         <v>705</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" t="s">
         <v>913</v>
       </c>
       <c r="M19" t="s">
@@ -20128,6 +20128,9 @@
         <v>717</v>
       </c>
     </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K240" s="9"/>
+    </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>867</v>
@@ -20153,7 +20156,9 @@
       <c r="I241" t="s">
         <v>704</v>
       </c>
-      <c r="K241" s="7"/>
+      <c r="K241" s="9" t="s">
+        <v>913</v>
+      </c>
       <c r="M241" t="s">
         <v>718</v>
       </c>
@@ -20183,10 +20188,15 @@
       <c r="I242" t="s">
         <v>704</v>
       </c>
-      <c r="K242" s="7"/>
+      <c r="K242" s="9" t="s">
+        <v>913</v>
+      </c>
       <c r="M242" t="s">
         <v>718</v>
       </c>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K243" s="9"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
@@ -20213,7 +20223,9 @@
       <c r="I244" t="s">
         <v>704</v>
       </c>
-      <c r="K244" s="7"/>
+      <c r="K244" s="9" t="s">
+        <v>913</v>
+      </c>
       <c r="M244" t="s">
         <v>719</v>
       </c>
@@ -20243,7 +20255,9 @@
       <c r="I245" t="s">
         <v>704</v>
       </c>
-      <c r="K245" s="7"/>
+      <c r="K245" s="9" t="s">
+        <v>913</v>
+      </c>
       <c r="M245" t="s">
         <v>719</v>
       </c>
